--- a/tests/Test_Basler.xlsx
+++ b/tests/Test_Basler.xlsx
@@ -1,22 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\_tools\git_repo\LEnsE\ressources\machine-vision-gui\tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA36D676-C79E-4DB2-91C2-76D239B0CFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IDS" sheetId="1" r:id="rId1"/>
-    <sheet name="Global-IDS Cockpit" sheetId="4" r:id="rId2"/>
-    <sheet name="Basler" sheetId="5" r:id="rId3"/>
+    <sheet name="Basler" sheetId="5" r:id="rId1"/>
+    <sheet name="Basler_Complet" sheetId="6" r:id="rId2"/>
+    <sheet name="IDS" sheetId="1" r:id="rId3"/>
+    <sheet name="Global-IDS Cockpit" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="36">
   <si>
     <t>Sous obscurité</t>
   </si>
@@ -98,11 +118,41 @@
   <si>
     <t>Basler Viewer / Colorspace = Off</t>
   </si>
+  <si>
+    <t>Mesures</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>a2A1920-160ucBAS</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Auteur</t>
+  </si>
+  <si>
+    <t>Julien VILLEMEJANE</t>
+  </si>
+  <si>
+    <t>Black Level</t>
+  </si>
+  <si>
+    <t>\/ Ti</t>
+  </si>
+  <si>
+    <t>Valeur flux ?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,12 +231,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -194,6 +243,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,12 +289,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -238,7 +326,1920 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Signal d'obscurité (LSB)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.5788809007569707E-2"/>
+                  <c:y val="-3.4047949888616862E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Basler!$A$7:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Basler!$D$7:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>0.40000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-660F-4A87-BFFB-356102D768A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214354944"/>
+        <c:axId val="214377600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="214354944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Ti (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214377600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214377600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Signal (LSB_10bits)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214354944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Bruit d'obscurité</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bruit d'obscurité (LSB)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$A$7:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$E$7:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>4.4090815370097207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0243379789238674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.196310917650468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.354152532784088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFCF-4081-9130-2E686F9594CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bruit d'obs théo min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$A$7:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$H$7:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CFCF-4081-9130-2E686F9594CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Bruit obs théo max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$A$7:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$I$7:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CFCF-4081-9130-2E686F9594CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Bruit d'obscurité 28/1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$A$17:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$E$17:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>6.8115710375800962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.892749892266297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.468116670093544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.700825976162189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CFCF-4081-9130-2E686F9594CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="44585728"/>
+        <c:axId val="44587648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="44585728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Ti (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44587648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="44587648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Signal (LSB_10bits)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44585728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Signal photonique</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Signal photonique (LSB)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$A$30:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$C$30:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DE2-4BFF-AA00-AFAD9E1C9B33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Signal photonique (28/1)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$A$43:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$C$43:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3DE2-4BFF-AA00-AFAD9E1C9B33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="44880640"/>
+        <c:axId val="44882560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="44880640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Ti (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44882560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="44882560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Signal (LSB_10bits)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44880640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Bruit photonique</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bruit photonique (LSB)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$A$30:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$E$30:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0722283071644165</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7686653569088229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6848709785604692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0372569947712886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5523557303944671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.012606412652728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.870411803823528</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.477482515962505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.379178856096541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EA8-4D0E-9F1C-3022B80953D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bruit photonique (28/1)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$A$43:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Global-IDS Cockpit'!$E$43:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>34.604009883249077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.625639926150093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.221506042681334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.120458191999724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.6151302117513</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.625639926150093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.231673344076277</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.039420342586716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.418742493993992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1EA8-4D0E-9F1C-3022B80953D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="45211648"/>
+        <c:axId val="45213568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="45211648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Ti (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45213568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="45213568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Bruit (LSB_10bits)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45211648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Bruit d'obscurité</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63575699912510941"/>
+          <c:y val="9.686609686609686E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bruit d'obscurité (LSB)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Basler!$A$7:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Basler!$F$7:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>0.75993420767853315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6785410331594519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8596773913773323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1540659228538015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4140215409146619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-69CD-47AD-984E-DC5FB30F5DE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214421504"/>
+        <c:axId val="214423424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="214421504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Ti (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214423424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214423424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Signal (LSB_10bits)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214421504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Signal photonique</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17587815294274656"/>
+          <c:y val="0.15417755091945928"/>
+          <c:w val="0.47960763379153876"/>
+          <c:h val="0.62250332374206752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Signal photonique (LSB)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Basler!$A$20:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Basler!$D$20:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.90000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E661-497E-BBE1-56521391A048}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214548480"/>
+        <c:axId val="214550400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="214548480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Ti (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214550400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214550400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Signal (LSB_10bits)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214548480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Bruit photonique</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bruit photonique (LSB)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Basler!$B$20:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31622776601683794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44721359549995793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54772255750516607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Basler!$F$20:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.431161222746202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1741972082890193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.483088560128058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.385322380815802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.287034720906075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.989434709365845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B34D-4108-BD25-D595DFCFDB2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214596608"/>
+        <c:axId val="214606976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="214596608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Ti (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214606976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214606976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Bruit (LSB_10bits)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214596608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Signal d'obscurité</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -346,6 +2347,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-751F-4609-B2E7-3CC6CAB5AC5C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -407,6 +2413,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-751F-4609-B2E7-3CC6CAB5AC5C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -468,6 +2479,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-751F-4609-B2E7-3CC6CAB5AC5C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -550,6 +2566,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-751F-4609-B2E7-3CC6CAB5AC5C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -586,7 +2607,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -622,7 +2642,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -652,8 +2671,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -682,671 +2701,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.63575699912510941"/>
-          <c:y val="9.686609686609686E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Bruit d'obscurité (LSB)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Basler!$A$7:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Basler!$F$7:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="1">
-                  <c:v>0.75993420767853315</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6785410331594519</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8596773913773323</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1540659228538015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4140215409146619</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="214421504"/>
-        <c:axId val="214423424"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="214421504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Ti (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214423424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="214423424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Signal (LSB_10bits)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214421504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Signal photonique</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17587815294274656"/>
-          <c:y val="0.15417755091945928"/>
-          <c:w val="0.47960763379153876"/>
-          <c:h val="0.62250332374206752"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Signal photonique (LSB)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Basler!$A$20:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Basler!$D$20:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-0.90000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>822</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1031</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1241</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1656</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="214548480"/>
-        <c:axId val="214550400"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="214548480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Ti (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214550400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="214550400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Signal (LSB_10bits)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214548480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Bruit photonique</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Bruit photonique (LSB)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Basler!$B$20:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.31622776601683794</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.44721359549995793</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54772255750516607</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.63245553203367588</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Basler!$F$20:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.431161222746202</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.1741972082890193</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.483088560128058</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.385322380815802</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.287034720906075</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.989434709365845</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="214596608"/>
-        <c:axId val="214606976"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="214596608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Ti (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214606976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="214606976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Bruit (LSB_10bits)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214596608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Bruit d'obscurité</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1412,6 +2766,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-71EF-4B87-8CD2-5C4B2200032D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1473,6 +2832,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-71EF-4B87-8CD2-5C4B2200032D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1534,6 +2898,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-71EF-4B87-8CD2-5C4B2200032D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1616,6 +2985,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-71EF-4B87-8CD2-5C4B2200032D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1651,7 +3025,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1687,7 +3060,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1701,7 +3073,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1716,8 +3087,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1746,7 +3117,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1839,6 +3209,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DB8-4330-A945-81778D6460CD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1856,7 +3231,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1933,6 +3307,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0DB8-4330-A945-81778D6460CD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1968,7 +3347,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
@@ -2003,7 +3381,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2017,7 +3394,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2032,8 +3408,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -2062,7 +3438,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2155,6 +3530,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10C4-4A75-8A91-D3A8F05FD3D7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2240,6 +3620,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-10C4-4A75-8A91-D3A8F05FD3D7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2275,7 +3660,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
@@ -2310,7 +3694,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2324,7 +3707,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2339,8 +3721,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -2369,7 +3751,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2477,6 +3858,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A8D5-4CC6-88B3-F78F6AD3EFD5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2538,6 +3924,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A8D5-4CC6-88B3-F78F6AD3EFD5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2599,6 +3990,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A8D5-4CC6-88B3-F78F6AD3EFD5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2616,7 +4012,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2672,6 +4067,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A8D5-4CC6-88B3-F78F6AD3EFD5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2708,7 +4108,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2744,7 +4143,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2774,1227 +4172,164 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Bruit d'obscurité</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Bruit d'obscurité (LSB)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$A$7:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$E$7:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="1">
-                  <c:v>4.4090815370097207</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0243379789238674</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.196310917650468</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.354152532784088</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Bruit d'obs théo min</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$A$7:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$H$7:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.60000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Bruit obs théo max</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$A$7:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$I$7:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>11.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>116</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Bruit d'obscurité 28/1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$A$17:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$E$17:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="1">
-                  <c:v>6.8115710375800962</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.892749892266297</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.468116670093544</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.700825976162189</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="44585728"/>
-        <c:axId val="44587648"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="44585728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Ti (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44587648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="44587648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="70"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Signal (LSB_10bits)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44585728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Signal photonique</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Signal photonique (LSB)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$A$30:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.5000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.75E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$C$30:$C$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>409</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>505</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>602</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>698</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>794</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Signal photonique (28/1)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$A$43:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.5000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.75E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$C$43:$C$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>457</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>564</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>671</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>778</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>867</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="44880640"/>
-        <c:axId val="44882560"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="44880640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Ti (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44882560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="44882560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Signal (LSB_10bits)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44880640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Bruit photonique</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Bruit photonique (LSB)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$A$30:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.5000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.75E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$E$30:$E$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5.0722283071644165</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.7686653569088229</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6848709785604692</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0372569947712886</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5523557303944671</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.012606412652728</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.870411803823528</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.477482515962505</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.379178856096541</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Bruit photonique (28/1)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$A$43:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.5000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.75E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Global-IDS Cockpit'!$E$43:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>34.604009883249077</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.625639926150093</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.221506042681334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36.120458191999724</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.6151302117513</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36.625639926150093</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37.231673344076277</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38.039420342586716</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23.418742493993992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="45211648"/>
-        <c:axId val="45213568"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="45211648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Ti (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45213568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="45213568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Bruit (LSB_10bits)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45211648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Signal d'obscurité</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Signal d'obscurité (LSB)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.5788809007569707E-2"/>
-                  <c:y val="-3.4047949888616862E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Basler!$A$7:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Basler!$D$7:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="1">
-                  <c:v>0.40000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80000000000000071</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6999999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="214354944"/>
-        <c:axId val="214377600"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="214354944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Ti (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214377600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="214377600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Signal (LSB_10bits)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214354944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4011,7 +4346,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4041,7 +4382,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4073,7 +4420,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4105,7 +4458,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 4"/>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4125,7 +4484,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4142,7 +4501,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4174,7 +4539,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4206,7 +4577,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4238,140 +4615,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85723</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 4"/>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4392,9 +4642,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4432,7 +4682,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4504,7 +4754,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4677,11 +4927,836 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="2">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8-$C$7</f>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ref="F8:F12" si="0">SQRT(E8^2-$E$7^2)</f>
+        <v>0.75993420767853315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D9" s="3">
+        <f>C9-$C$7</f>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F9" s="3">
+        <f>SQRT(E9^2-$E$7^2)</f>
+        <v>1.6785410331594519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10-$C$7</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8596773913773323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="2">
+        <v>10.25</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11-$C$7</f>
+        <v>1.25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1540659228538015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12-$C$7</f>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4140215409146619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7">
+        <f>SQRT(A20)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D25" si="1">C20-$C$7</f>
+        <v>-0.90000000000000036</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" ref="F20:F25" si="2">SQRT(E20^2-$E$7^2)</f>
+        <v>0.431161222746202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="B21" s="7">
+        <f t="shared" ref="B21:B25" si="3">SQRT(A21)</f>
+        <v>0.31622776601683794</v>
+      </c>
+      <c r="C21" s="2">
+        <v>420</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="1"/>
+        <v>411</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="2"/>
+        <v>8.1741972082890193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="B22" s="7">
+        <f t="shared" si="3"/>
+        <v>0.44721359549995793</v>
+      </c>
+      <c r="C22" s="2">
+        <v>831</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="1"/>
+        <v>822</v>
+      </c>
+      <c r="E22" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="2"/>
+        <v>12.483088560128058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="B23" s="7">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1040</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="1"/>
+        <v>1031</v>
+      </c>
+      <c r="E23" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="2"/>
+        <v>14.385322380815802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="B24" s="7">
+        <f t="shared" si="3"/>
+        <v>0.54772255750516607</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1250</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="1"/>
+        <v>1241</v>
+      </c>
+      <c r="E24" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="2"/>
+        <v>16.287034720906075</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="B25" s="7">
+        <f t="shared" si="3"/>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1665</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="1"/>
+        <v>1656</v>
+      </c>
+      <c r="E25" s="2">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="2"/>
+        <v>19.989434709365845</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F842E806-3489-423F-BBA9-D8AF74B92826}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="11"/>
+    <col min="3" max="6" width="15.7109375" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16">
+        <v>9</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16">
+        <v>9.4</v>
+      </c>
+      <c r="D10" s="17">
+        <f>C10-$C$9</f>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" ref="F10:F16" si="0">SQRT(E10^2-$E$9^2)</f>
+        <v>0.75993420767853315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D11" s="17">
+        <f>C11-$C$9</f>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="F11" s="20">
+        <f>SQRT(E11^2-$E$9^2)</f>
+        <v>1.6785410331594519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16">
+        <v>10</v>
+      </c>
+      <c r="D12" s="17">
+        <f>C12-$C$9</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1.97</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="0"/>
+        <v>1.8596773913773323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16">
+        <v>10.25</v>
+      </c>
+      <c r="D13" s="17">
+        <f>C13-$C$9</f>
+        <v>1.25</v>
+      </c>
+      <c r="E13" s="16">
+        <v>2.25</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="0"/>
+        <v>2.1540659228538015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17">
+        <f t="shared" ref="D14:D16" si="1">C14-$C$9</f>
+        <v>-9</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>2</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="B24" s="19">
+        <f>SQRT(A24)</f>
+        <v>0.01</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17">
+        <f t="shared" ref="D24:D31" si="2">C24-$C$9</f>
+        <v>-9</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" ref="F24:F31" si="3">SQRT(E24^2-$E$9^2)</f>
+        <v>0.431161222746202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="B25" s="19">
+        <f t="shared" ref="B25:B28" si="4">SQRT(A25)</f>
+        <v>0.31622776601683794</v>
+      </c>
+      <c r="C25" s="16">
+        <v>420</v>
+      </c>
+      <c r="D25" s="17">
+        <f t="shared" si="2"/>
+        <v>411</v>
+      </c>
+      <c r="E25" s="16">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="3"/>
+        <v>8.1741972082890193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="B26" s="19">
+        <f t="shared" si="4"/>
+        <v>0.44721359549995793</v>
+      </c>
+      <c r="C26" s="16">
+        <v>831</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" si="2"/>
+        <v>822</v>
+      </c>
+      <c r="E26" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="3"/>
+        <v>12.483088560128058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="B27" s="19">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1040</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" si="2"/>
+        <v>1031</v>
+      </c>
+      <c r="E27" s="16">
+        <v>14.4</v>
+      </c>
+      <c r="F27" s="20">
+        <f t="shared" si="3"/>
+        <v>14.385322380815802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="19">
+        <f t="shared" si="4"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="C28" s="16">
+        <v>1250</v>
+      </c>
+      <c r="D28" s="17">
+        <f t="shared" si="2"/>
+        <v>1241</v>
+      </c>
+      <c r="E28" s="16">
+        <v>16.3</v>
+      </c>
+      <c r="F28" s="20">
+        <f t="shared" si="3"/>
+        <v>16.287034720906075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>1</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>2</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4701,7 +5776,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
@@ -4709,7 +5784,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4724,21 +5799,21 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4749,13 +5824,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>0.1</v>
       </c>
       <c r="B7" s="2">
@@ -4766,11 +5841,11 @@
         <v>4.5</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <f>24*A7</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <f>420*A7</f>
         <v>42</v>
       </c>
@@ -4784,7 +5859,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>0.25</v>
       </c>
       <c r="B8" s="2">
@@ -4801,11 +5876,11 @@
         <f>SQRT(D8^2-$D$7^2)</f>
         <v>4.4090815370097207</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <f>24*A8</f>
         <v>6</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <f>420*A8</f>
         <v>105</v>
       </c>
@@ -4819,7 +5894,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>0.5</v>
       </c>
       <c r="B9" s="2">
@@ -4836,11 +5911,11 @@
         <f t="shared" ref="E9:E11" si="0">SQRT(D9^2-$D$7^2)</f>
         <v>8.0243379789238674</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <f>24*A9</f>
         <v>12</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <f>420*A9</f>
         <v>210</v>
       </c>
@@ -4854,7 +5929,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>0.75</v>
       </c>
       <c r="B10" s="2">
@@ -4871,11 +5946,11 @@
         <f t="shared" si="0"/>
         <v>12.196310917650468</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <f>24*A10</f>
         <v>18</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <f>420*A10</f>
         <v>315</v>
       </c>
@@ -4889,7 +5964,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>1</v>
       </c>
       <c r="B11" s="2">
@@ -4906,11 +5981,11 @@
         <f t="shared" si="0"/>
         <v>15.354152532784088</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <f>24*A11</f>
         <v>24</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <f>420*A11</f>
         <v>420</v>
       </c>
@@ -4924,7 +5999,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
@@ -4932,7 +6007,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -4947,21 +6022,21 @@
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4972,13 +6047,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>0.1</v>
       </c>
       <c r="B16" s="2">
@@ -4989,11 +6064,11 @@
         <v>5.25</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <f t="shared" ref="F16:F24" si="1">24*A16</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <f t="shared" ref="G16:G24" si="2">420*A16</f>
         <v>42</v>
       </c>
@@ -5007,7 +6082,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>0.25</v>
       </c>
       <c r="B17" s="2">
@@ -5024,11 +6099,11 @@
         <f>SQRT(D17^2-$D$16^2)</f>
         <v>4.1141706333111658</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
@@ -5042,7 +6117,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>0.5</v>
       </c>
       <c r="B18" s="2">
@@ -5059,11 +6134,11 @@
         <f t="shared" ref="E18:E24" si="6">SQRT(D18^2-$D$16^2)</f>
         <v>6.8115710375800962</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
@@ -5077,7 +6152,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>0.75</v>
       </c>
       <c r="B19" s="2">
@@ -5094,11 +6169,11 @@
         <f t="shared" si="6"/>
         <v>9.438087730043625</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
@@ -5112,7 +6187,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>1</v>
       </c>
       <c r="B20" s="2">
@@ -5129,11 +6204,11 @@
         <f t="shared" si="6"/>
         <v>11.892749892266297</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="2">
         <f t="shared" si="2"/>
         <v>420</v>
       </c>
@@ -5147,141 +6222,141 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>1.25</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>140</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>15.7</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="6"/>
         <v>14.796198836187623</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <f t="shared" si="2"/>
         <v>525</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="2">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>1.5</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>140</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>18.239999999999998</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="6"/>
         <v>17.468116670093544</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="2">
         <f t="shared" si="2"/>
         <v>630</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="2">
         <f t="shared" si="4"/>
         <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>1.75</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>139</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>21</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="6"/>
         <v>20.333162567588939</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <f t="shared" si="2"/>
         <v>735</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="2">
         <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <f t="shared" si="4"/>
         <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>2</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>139</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>23.3</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="6"/>
         <v>22.700825976162189</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="2">
         <f t="shared" si="2"/>
         <v>840</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="2">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="2">
         <f t="shared" si="4"/>
         <v>232</v>
       </c>
@@ -5292,7 +6367,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
@@ -5300,24 +6375,24 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -5330,7 +6405,7 @@
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>1E-4</v>
       </c>
       <c r="B33" s="2">
@@ -5349,7 +6424,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="B34" s="2">
@@ -5368,7 +6443,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B35" s="2">
@@ -5387,7 +6462,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="B36" s="2">
@@ -5406,7 +6481,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>1E-3</v>
       </c>
       <c r="B37" s="2">
@@ -5425,17 +6500,17 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>1.25E-3</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>597</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" si="7"/>
         <v>505</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="2">
         <v>12.2</v>
       </c>
       <c r="E38" s="3">
@@ -5444,17 +6519,17 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>1.5E-3</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>694</v>
       </c>
       <c r="C39" s="3">
         <f t="shared" si="7"/>
         <v>602</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="2">
         <v>13.9</v>
       </c>
       <c r="E39" s="3">
@@ -5463,17 +6538,17 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>1.75E-3</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>790</v>
       </c>
       <c r="C40" s="3">
         <f t="shared" si="7"/>
         <v>698</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="2">
         <v>15.4</v>
       </c>
       <c r="E40" s="3">
@@ -5482,17 +6557,17 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>2E-3</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2">
         <v>886</v>
       </c>
       <c r="C41" s="3">
         <f t="shared" si="7"/>
         <v>794</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="2">
         <v>17.2</v>
       </c>
       <c r="E41" s="3">
@@ -5501,7 +6576,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
@@ -5509,7 +6584,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -5524,24 +6599,24 @@
       <c r="E44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -5552,14 +6627,14 @@
         <v>5</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="8"/>
+      <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>1E-4</v>
       </c>
       <c r="B46" s="2">
@@ -5576,11 +6651,11 @@
         <f>SQRT(D46^2-$D$16^2)</f>
         <v>34.604009883249077</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="2">
         <f t="shared" ref="F46:F54" si="9">24*A46</f>
         <v>2.4000000000000002E-3</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="2">
         <f t="shared" ref="G46:G54" si="10">420*A46</f>
         <v>4.2000000000000003E-2</v>
       </c>
@@ -5592,12 +6667,12 @@
         <f t="shared" ref="I46:I54" si="12">116*A46</f>
         <v>1.1600000000000001E-2</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="8">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="B47" s="2">
@@ -5614,11 +6689,11 @@
         <f t="shared" ref="E47:E54" si="13">SQRT(D47^2-$D$16^2)</f>
         <v>36.625639926150093</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="2">
         <f t="shared" si="9"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="2">
         <f t="shared" si="10"/>
         <v>0.105</v>
       </c>
@@ -5630,12 +6705,12 @@
         <f t="shared" si="12"/>
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="A48" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B48" s="2">
@@ -5652,11 +6727,11 @@
         <f t="shared" si="13"/>
         <v>36.221506042681334</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="2">
         <f t="shared" si="9"/>
         <v>1.2E-2</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="2">
         <f t="shared" si="10"/>
         <v>0.21</v>
       </c>
@@ -5668,12 +6743,12 @@
         <f t="shared" si="12"/>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="A49" s="8">
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="B49" s="2">
@@ -5690,11 +6765,11 @@
         <f t="shared" si="13"/>
         <v>36.120458191999724</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="2">
         <f t="shared" si="9"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="2">
         <f t="shared" si="10"/>
         <v>0.315</v>
       </c>
@@ -5706,12 +6781,12 @@
         <f t="shared" si="12"/>
         <v>8.7000000000000008E-2</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>1E-3</v>
       </c>
       <c r="B50" s="2">
@@ -5728,11 +6803,11 @@
         <f t="shared" si="13"/>
         <v>35.6151302117513</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="2">
         <f t="shared" si="9"/>
         <v>2.4E-2</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="2">
         <f t="shared" si="10"/>
         <v>0.42</v>
       </c>
@@ -5744,159 +6819,159 @@
         <f t="shared" si="12"/>
         <v>0.11600000000000001</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>1.25E-3</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="2">
         <v>704</v>
       </c>
       <c r="C51" s="3">
         <f t="shared" si="14"/>
         <v>564</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="2">
         <v>37</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" si="13"/>
         <v>36.625639926150093</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="2">
         <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="2">
         <f t="shared" si="10"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="2">
         <f t="shared" si="11"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="2">
         <f t="shared" si="12"/>
         <v>0.14499999999999999</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+      <c r="A52" s="8">
         <v>1.5E-3</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="2">
         <v>811</v>
       </c>
       <c r="C52" s="3">
         <f t="shared" si="14"/>
         <v>671</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="2">
         <v>37.6</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" si="13"/>
         <v>37.231673344076277</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="2">
         <f t="shared" si="9"/>
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="2">
         <f t="shared" si="10"/>
         <v>0.63</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="2">
         <f t="shared" si="11"/>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="2">
         <f t="shared" si="12"/>
         <v>0.17400000000000002</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+      <c r="A53" s="8">
         <v>1.75E-3</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="2">
         <v>918</v>
       </c>
       <c r="C53" s="3">
         <f t="shared" si="14"/>
         <v>778</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="2">
         <v>38.4</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" si="13"/>
         <v>38.039420342586716</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="2">
         <f t="shared" si="9"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="2">
         <f t="shared" si="10"/>
         <v>0.73499999999999999</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="2">
         <f t="shared" si="11"/>
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="2">
         <f t="shared" si="12"/>
         <v>0.20300000000000001</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J53" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+      <c r="A54" s="8">
         <v>2E-3</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="2">
         <v>1007</v>
       </c>
       <c r="C54" s="3">
         <f t="shared" si="14"/>
         <v>867</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="2">
         <v>24</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" si="13"/>
         <v>23.418742493993992</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="2">
         <f t="shared" si="9"/>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="2">
         <f t="shared" si="10"/>
         <v>0.84</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="2">
         <f t="shared" si="11"/>
         <v>1.2E-2</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="2">
         <f t="shared" si="12"/>
         <v>0.23200000000000001</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="J54" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5907,8 +6982,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5932,12 +7007,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5952,21 +7027,21 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5977,13 +7052,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>0.1</v>
       </c>
       <c r="B7" s="2">
@@ -5994,11 +7069,11 @@
         <v>4.5</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <f>24*A7</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <f>420*A7</f>
         <v>42</v>
       </c>
@@ -6012,7 +7087,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>0.25</v>
       </c>
       <c r="B8" s="2">
@@ -6029,11 +7104,11 @@
         <f>SQRT(D8^2-$D$7^2)</f>
         <v>4.4090815370097207</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <f>24*A8</f>
         <v>6</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <f>420*A8</f>
         <v>105</v>
       </c>
@@ -6047,7 +7122,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>0.5</v>
       </c>
       <c r="B9" s="2">
@@ -6064,11 +7139,11 @@
         <f t="shared" ref="E9:E11" si="0">SQRT(D9^2-$D$7^2)</f>
         <v>8.0243379789238674</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <f>24*A9</f>
         <v>12</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <f>420*A9</f>
         <v>210</v>
       </c>
@@ -6082,7 +7157,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>0.75</v>
       </c>
       <c r="B10" s="2">
@@ -6099,11 +7174,11 @@
         <f t="shared" si="0"/>
         <v>12.196310917650468</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <f>24*A10</f>
         <v>18</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <f>420*A10</f>
         <v>315</v>
       </c>
@@ -6117,7 +7192,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>1</v>
       </c>
       <c r="B11" s="2">
@@ -6134,11 +7209,11 @@
         <f t="shared" si="0"/>
         <v>15.354152532784088</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <f>24*A11</f>
         <v>24</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <f>420*A11</f>
         <v>420</v>
       </c>
@@ -6152,12 +7227,12 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -6172,21 +7247,21 @@
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -6197,13 +7272,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>0</v>
       </c>
       <c r="B16" s="2"/>
@@ -6214,13 +7289,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>0.1</v>
       </c>
       <c r="B17" s="2">
@@ -6231,11 +7306,11 @@
         <v>5.25</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <f t="shared" ref="F17:F21" si="1">24*A17</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <f t="shared" ref="G17:G21" si="2">420*A17</f>
         <v>42</v>
       </c>
@@ -6249,7 +7324,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>0.5</v>
       </c>
       <c r="B18" s="2">
@@ -6266,11 +7341,11 @@
         <f>SQRT(D18^2-$D$17^2)</f>
         <v>6.8115710375800962</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
@@ -6284,7 +7359,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>1</v>
       </c>
       <c r="B19" s="2">
@@ -6301,11 +7376,11 @@
         <f>SQRT(D19^2-$D$17^2)</f>
         <v>11.892749892266297</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <f t="shared" si="2"/>
         <v>420</v>
       </c>
@@ -6319,71 +7394,71 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>1.5</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>156</v>
       </c>
       <c r="C20" s="3">
         <f>B20-$B$17</f>
         <v>67</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>18.239999999999998</v>
       </c>
       <c r="E20" s="3">
         <f>SQRT(D20^2-$D$17^2)</f>
         <v>17.468116670093544</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="2">
         <f t="shared" si="2"/>
         <v>630</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <f t="shared" si="4"/>
         <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>2</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>176</v>
       </c>
       <c r="C21" s="3">
         <f>B21-$B$17</f>
         <v>87</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>23.3</v>
       </c>
       <c r="E21" s="3">
         <f>SQRT(D21^2-$D$17^2)</f>
         <v>22.700825976162189</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <f t="shared" si="2"/>
         <v>840</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="2">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <f t="shared" si="4"/>
         <v>232</v>
       </c>
@@ -6394,29 +7469,29 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -6429,7 +7504,7 @@
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>1E-4</v>
       </c>
       <c r="B30" s="2">
@@ -6448,7 +7523,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="B31" s="2">
@@ -6467,7 +7542,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B32" s="2">
@@ -6486,7 +7561,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="B33" s="2">
@@ -6505,7 +7580,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>1E-3</v>
       </c>
       <c r="B34" s="2">
@@ -6524,17 +7599,17 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>1.25E-3</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>597</v>
       </c>
       <c r="C35" s="3">
         <f t="shared" si="5"/>
         <v>505</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="2">
         <v>12.2</v>
       </c>
       <c r="E35" s="3">
@@ -6543,17 +7618,17 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>1.5E-3</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>694</v>
       </c>
       <c r="C36" s="3">
         <f t="shared" si="5"/>
         <v>602</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>13.9</v>
       </c>
       <c r="E36" s="3">
@@ -6562,17 +7637,17 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>1.75E-3</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>790</v>
       </c>
       <c r="C37" s="3">
         <f t="shared" si="5"/>
         <v>698</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <v>15.4</v>
       </c>
       <c r="E37" s="3">
@@ -6581,17 +7656,17 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>2E-3</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>886</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" si="5"/>
         <v>794</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="2">
         <v>17.2</v>
       </c>
       <c r="E38" s="3">
@@ -6600,12 +7675,12 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -6620,24 +7695,24 @@
       <c r="E41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -6648,14 +7723,14 @@
         <v>5</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="8"/>
+      <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>1E-4</v>
       </c>
       <c r="B43" s="2">
@@ -6672,11 +7747,11 @@
         <f>SQRT(D43^2-$D$17^2)</f>
         <v>34.604009883249077</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="2">
         <f t="shared" ref="F43:F51" si="7">24*A43</f>
         <v>2.4000000000000002E-3</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="2">
         <f t="shared" ref="G43:G51" si="8">420*A43</f>
         <v>4.2000000000000003E-2</v>
       </c>
@@ -6688,12 +7763,12 @@
         <f t="shared" ref="I43:I51" si="10">116*A43</f>
         <v>1.1600000000000001E-2</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="B44" s="2">
@@ -6710,11 +7785,11 @@
         <f t="shared" ref="E44:E51" si="11">SQRT(D44^2-$D$17^2)</f>
         <v>36.625639926150093</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="2">
         <f t="shared" si="7"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="2">
         <f t="shared" si="8"/>
         <v>0.105</v>
       </c>
@@ -6726,12 +7801,12 @@
         <f t="shared" si="10"/>
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B45" s="2">
@@ -6748,11 +7823,11 @@
         <f t="shared" si="11"/>
         <v>36.221506042681334</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="2">
         <f t="shared" si="7"/>
         <v>1.2E-2</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="2">
         <f t="shared" si="8"/>
         <v>0.21</v>
       </c>
@@ -6764,12 +7839,12 @@
         <f t="shared" si="10"/>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="B46" s="2">
@@ -6786,11 +7861,11 @@
         <f t="shared" si="11"/>
         <v>36.120458191999724</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="2">
         <f t="shared" si="7"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="2">
         <f t="shared" si="8"/>
         <v>0.315</v>
       </c>
@@ -6802,12 +7877,12 @@
         <f t="shared" si="10"/>
         <v>8.7000000000000008E-2</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="8">
         <v>1E-3</v>
       </c>
       <c r="B47" s="2">
@@ -6824,11 +7899,11 @@
         <f t="shared" si="11"/>
         <v>35.6151302117513</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="2">
         <f t="shared" si="7"/>
         <v>2.4E-2</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="2">
         <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
@@ -6840,535 +7915,160 @@
         <f t="shared" si="10"/>
         <v>0.11600000000000001</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="A48" s="8">
         <v>1.25E-3</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="2">
         <v>704</v>
       </c>
       <c r="C48" s="3">
         <f t="shared" si="12"/>
         <v>564</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="2">
         <v>37</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="11"/>
         <v>36.625639926150093</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="2">
         <f t="shared" si="7"/>
         <v>0.03</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="2">
         <f t="shared" si="8"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="2">
         <f t="shared" si="9"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="2">
         <f t="shared" si="10"/>
         <v>0.14499999999999999</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="A49" s="8">
         <v>1.5E-3</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="2">
         <v>811</v>
       </c>
       <c r="C49" s="3">
         <f t="shared" si="12"/>
         <v>671</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="2">
         <v>37.6</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" si="11"/>
         <v>37.231673344076277</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="2">
         <f t="shared" si="7"/>
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="2">
         <f t="shared" si="8"/>
         <v>0.63</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="2">
         <f t="shared" si="9"/>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="2">
         <f t="shared" si="10"/>
         <v>0.17400000000000002</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>1.75E-3</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="2">
         <v>918</v>
       </c>
       <c r="C50" s="3">
         <f t="shared" si="12"/>
         <v>778</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="2">
         <v>38.4</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="11"/>
         <v>38.039420342586716</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="2">
         <f t="shared" si="7"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="2">
         <f t="shared" si="8"/>
         <v>0.73499999999999999</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="2">
         <f t="shared" si="9"/>
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="2">
         <f t="shared" si="10"/>
         <v>0.20300000000000001</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>2E-3</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="2">
         <v>1007</v>
       </c>
       <c r="C51" s="3">
         <f t="shared" si="12"/>
         <v>867</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="2">
         <v>24</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" si="11"/>
         <v>23.418742493993992</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="2">
         <f t="shared" si="7"/>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="2">
         <f t="shared" si="8"/>
         <v>0.84</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="2">
         <f t="shared" si="9"/>
         <v>1.2E-2</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="2">
         <f t="shared" si="10"/>
         <v>0.23200000000000001</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="7" t="s">
         <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="4" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="2">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="D8" s="3">
-        <f>C8-$C$7</f>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" ref="F8:F12" si="0">SQRT(E8^2-$E$7^2)</f>
-        <v>0.75993420767853315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D9" s="3">
-        <f>C9-$C$7</f>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F9" s="3">
-        <f>SQRT(E9^2-$E$7^2)</f>
-        <v>1.6785410331594519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-$C$7</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.97</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8596773913773323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="2">
-        <v>10.25</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-$C$7</f>
-        <v>1.25</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1540659228538015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-$C$7</f>
-        <v>1.6999999999999993</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4140215409146619</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>0</v>
-      </c>
-      <c r="B20" s="8">
-        <f>SQRT(A20)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D20" s="3">
-        <f>C20-$C$7</f>
-        <v>-0.90000000000000036</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="F20" s="3">
-        <f>SQRT(E20^2-$E$7^2)</f>
-        <v>0.431161222746202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="B21" s="8">
-        <f t="shared" ref="B21:B25" si="1">SQRT(A21)</f>
-        <v>0.31622776601683794</v>
-      </c>
-      <c r="C21" s="2">
-        <v>420</v>
-      </c>
-      <c r="D21" s="3">
-        <f>C21-$C$7</f>
-        <v>411</v>
-      </c>
-      <c r="E21" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F21" s="3">
-        <f>SQRT(E21^2-$E$7^2)</f>
-        <v>8.1741972082890193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="B22" s="8">
-        <f t="shared" si="1"/>
-        <v>0.44721359549995793</v>
-      </c>
-      <c r="C22" s="2">
-        <v>831</v>
-      </c>
-      <c r="D22" s="3">
-        <f>C22-$C$7</f>
-        <v>822</v>
-      </c>
-      <c r="E22" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="F22" s="3">
-        <f>SQRT(E22^2-$E$7^2)</f>
-        <v>12.483088560128058</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="B23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1040</v>
-      </c>
-      <c r="D23" s="3">
-        <f>C23-$C$7</f>
-        <v>1031</v>
-      </c>
-      <c r="E23" s="2">
-        <v>14.4</v>
-      </c>
-      <c r="F23" s="3">
-        <f>SQRT(E23^2-$E$7^2)</f>
-        <v>14.385322380815802</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="B24" s="8">
-        <f t="shared" si="1"/>
-        <v>0.54772255750516607</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1250</v>
-      </c>
-      <c r="D24" s="3">
-        <f>C24-$C$7</f>
-        <v>1241</v>
-      </c>
-      <c r="E24" s="2">
-        <v>16.3</v>
-      </c>
-      <c r="F24" s="3">
-        <f>SQRT(E24^2-$E$7^2)</f>
-        <v>16.287034720906075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="B25" s="8">
-        <f t="shared" si="1"/>
-        <v>0.63245553203367588</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1665</v>
-      </c>
-      <c r="D25" s="3">
-        <f>C25-$C$7</f>
-        <v>1656</v>
-      </c>
-      <c r="E25" s="4">
-        <v>20</v>
-      </c>
-      <c r="F25" s="3">
-        <f>SQRT(E25^2-$E$7^2)</f>
-        <v>19.989434709365845</v>
       </c>
     </row>
   </sheetData>

--- a/tests/Test_Basler.xlsx
+++ b/tests/Test_Basler.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tools\git_repo\LEnsE\ressources\machine-vision-gui\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\_tools\git_repo\LEnsE\ressources\machine-vision-gui\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3511CFD6-EFDE-469A-9061-75EA3BA5782A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED20FADE-7753-4413-8FD4-E51D0ED513B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basler_infos" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Ti</t>
   </si>
@@ -170,6 +170,15 @@
   <si>
     <t>sqrt</t>
   </si>
+  <si>
+    <t>Change Grab timeout to 2500 instead of 1000</t>
+  </si>
+  <si>
+    <t>AOI</t>
+  </si>
+  <si>
+    <t>400 x 400</t>
+  </si>
 </sst>
 </file>
 
@@ -177,7 +186,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -353,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,16 +405,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -426,15 +434,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -614,25 +613,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.21999999999999886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.54999999999999893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.6899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.4100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-2.0700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-3.0700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-4.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -975,25 +974,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.2366431913239844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.45825756949558377</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.55856960175075754</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0249390225764652</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.9021040980976829</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.7985710639538888</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.7793121067199515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,7 +1298,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1E-4</c:v>
+                  <c:v>2.0000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1</c:v>
@@ -1332,28 +1331,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>35.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>209.37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>420.16999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>526.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1059.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2129.77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3199.77</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4013.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,28 +1658,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.9304300012730948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>14.469623353771169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>20.498048687619022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>22.9405754069073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>32.544892072336019</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>46.14943119909497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>56.566509526397333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>63.354321083885033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1692,28 +1691,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.0079840636817816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.4981087657484551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.9108280224006897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.8940429501998697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>13.012244233797642</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>19.488139983076888</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>24.890713127590377</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>29.992292343200443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4572,10 +4571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,12 +4588,12 @@
     <col min="7" max="7" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -4602,7 +4601,7 @@
       <c r="C2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -4613,75 +4612,72 @@
       <c r="D3" s="3"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="35"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>12</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="40" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>2^B8</f>
         <v>4096</v>
@@ -4690,7 +4686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
@@ -4705,29 +4701,34 @@
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="39">
         <f>B10/B9</f>
         <v>2.682373046875</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="27"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="28">
         <f>SQRT(B10)</f>
         <v>104.81889142707053</v>
       </c>
@@ -4739,7 +4740,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>33</v>
       </c>
@@ -4747,33 +4748,30 @@
         <f>B10/B13</f>
         <v>104.81889142707054</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24">
         <f>20*LOG10(B14)</f>
         <v>40.408791245157872</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26">
         <v>40.409999999999997</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="14"/>
       <c r="G16" s="14"/>
@@ -4801,46 +4799,43 @@
         <f>B10/B17</f>
         <v>4735.7758620689656</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24">
         <f>20*LOG10(B18)</f>
         <v>73.507822792497734</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26">
         <v>71.819999999999993</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45" t="s">
+      <c r="D22" s="40"/>
+      <c r="E22" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="44"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="15">
@@ -4852,19 +4847,19 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="44"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="15">
@@ -4889,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F842E806-3489-423F-BBA9-D8AF74B92826}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4918,7 +4913,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4960,122 +4961,154 @@
       <c r="A7" s="7">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8">
+        <v>11.23</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8">
+        <v>0.68</v>
+      </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>0.1</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8">
+        <v>11.45</v>
+      </c>
       <c r="C8" s="9">
         <f>B8-$B$7</f>
-        <v>0</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8">
+        <v>0.72</v>
+      </c>
       <c r="F8" s="11">
         <f t="shared" ref="F8:F14" si="0">SQRT(E8^2-$E$7^2)</f>
-        <v>0</v>
+        <v>0.2366431913239844</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>0.2</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8">
+        <v>11.78</v>
+      </c>
       <c r="C9" s="9">
         <f>B9-$B$7</f>
-        <v>0</v>
+        <v>0.54999999999999893</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8">
+        <v>0.82</v>
+      </c>
       <c r="F9" s="11">
         <f>SQRT(E9^2-$E$7^2)</f>
-        <v>0</v>
+        <v>0.45825756949558377</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>0.25</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8">
+        <v>11.92</v>
+      </c>
       <c r="C10" s="9">
         <f>B10-$B$7</f>
-        <v>0</v>
+        <v>0.6899999999999995</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8">
+        <v>0.88</v>
+      </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.55856960175075754</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>0.5</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8">
+        <v>12.64</v>
+      </c>
       <c r="C11" s="9">
         <f>B11-$B$7</f>
-        <v>0</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8">
+        <v>1.23</v>
+      </c>
       <c r="F11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0249390225764652</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8">
+        <v>9.16</v>
+      </c>
       <c r="C12" s="9">
         <f t="shared" ref="C12:C14" si="1">B12-$B$7</f>
-        <v>0</v>
+        <v>-2.0700000000000003</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8">
+        <v>2.02</v>
+      </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9021040980976829</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1.5</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8">
+        <v>8.16</v>
+      </c>
       <c r="C13" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3.0700000000000003</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8">
+        <v>2.88</v>
+      </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7985710639538888</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8">
+        <v>7.19</v>
+      </c>
       <c r="C14" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4.04</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8">
+        <v>3.84</v>
+      </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.7793121067199515</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5086,7 +5119,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5128,154 +5167,186 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="B22" s="8"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="B22" s="8">
+        <v>46.4</v>
+      </c>
       <c r="C22" s="9">
         <f t="shared" ref="C22:C29" si="2">B22-$B$7</f>
-        <v>0</v>
+        <v>35.17</v>
       </c>
       <c r="D22" s="9">
         <f>SQRT(C22)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="8"/>
+        <v>5.9304300012730948</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2.12</v>
+      </c>
       <c r="F22" s="11">
         <f t="shared" ref="F22:F29" si="3">SQRT(E22^2-$E$7^2)</f>
-        <v>0</v>
+        <v>2.0079840636817816</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>0.1</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="8">
+        <v>220.6</v>
+      </c>
       <c r="C23" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>209.37</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" ref="D23:D29" si="4">SQRT(C23)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="8"/>
+        <v>14.469623353771169</v>
+      </c>
+      <c r="E23" s="8">
+        <v>5.54</v>
+      </c>
       <c r="F23" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.4981087657484551</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>0.2</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="8">
+        <v>431.4</v>
+      </c>
       <c r="C24" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>420.16999999999996</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="8"/>
+        <v>20.498048687619022</v>
+      </c>
+      <c r="E24" s="8">
+        <v>7.94</v>
+      </c>
       <c r="F24" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.9108280224006897</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>0.25</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="8">
+        <v>537.5</v>
+      </c>
       <c r="C25" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>526.27</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="8"/>
+        <v>22.9405754069073</v>
+      </c>
+      <c r="E25" s="8">
+        <v>8.92</v>
+      </c>
       <c r="F25" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.8940429501998697</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>0.5</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="8">
+        <v>1070.4000000000001</v>
+      </c>
       <c r="C26" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1059.17</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="8"/>
+        <v>32.544892072336019</v>
+      </c>
+      <c r="E26" s="8">
+        <v>13.03</v>
+      </c>
       <c r="F26" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13.012244233797642</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>1</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="8">
+        <v>2141</v>
+      </c>
       <c r="C27" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2129.77</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="8"/>
+        <v>46.14943119909497</v>
+      </c>
+      <c r="E27" s="8">
+        <v>19.5</v>
+      </c>
       <c r="F27" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19.488139983076888</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>1.5</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="8">
+        <v>3211</v>
+      </c>
       <c r="C28" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3199.77</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="8"/>
+        <v>56.566509526397333</v>
+      </c>
+      <c r="E28" s="8">
+        <v>24.9</v>
+      </c>
       <c r="F28" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24.890713127590377</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>2</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="8">
+        <v>4025</v>
+      </c>
       <c r="C29" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4013.77</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="8"/>
+        <v>63.354321083885033</v>
+      </c>
+      <c r="E29" s="8">
+        <v>30</v>
+      </c>
       <c r="F29" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>29.992292343200443</v>
       </c>
     </row>
   </sheetData>

--- a/tests/Test_Basler.xlsx
+++ b/tests/Test_Basler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\_tools\git_repo\LEnsE\ressources\machine-vision-gui\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED20FADE-7753-4413-8FD4-E51D0ED513B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A572A1-9242-45BE-8C63-12378F9956E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basler_infos" sheetId="5" r:id="rId1"/>
@@ -362,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,6 +447,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -575,12 +578,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Basler_Complet!$A$7:$A$14</c:f>
+              <c:f>Basler_Complet!$A$8:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.0000000000000002E-5</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1</c:v>
@@ -608,30 +611,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Basler_Complet!$C$7:$C$14</c:f>
+              <c:f>Basler_Complet!$C$8:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.98000000000000043</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21999999999999886</c:v>
+                  <c:v>1.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54999999999999893</c:v>
+                  <c:v>1.5299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6899999999999995</c:v>
+                  <c:v>1.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4100000000000001</c:v>
+                  <c:v>2.3900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.0700000000000003</c:v>
+                  <c:v>-1.0899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.0700000000000003</c:v>
+                  <c:v>-2.09</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.04</c:v>
+                  <c:v>-3.0599999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,14 +940,58 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Basler_Complet!$A$7:$A$14</c:f>
+              <c:f>Basler_Complet!$A$8:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.0000000000000002E-5</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1</c:v>
@@ -969,10 +1019,13 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Basler_Complet!$F$7:$F$14</c:f>
+              <c:f>Basler_Complet!$F$8:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2366431913239844</c:v>
                 </c:pt>
@@ -1098,7 +1151,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1291,14 +1344,58 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Basler_Complet!$A$22:$A$29</c:f>
+              <c:f>Basler_Complet!$A$23:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.0000000000000002E-5</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1</c:v>
@@ -1326,33 +1423,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Basler_Complet!$C$22:$C$29</c:f>
+              <c:f>Basler_Complet!$C$23:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>35.17</c:v>
+                  <c:v>36.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209.37</c:v>
+                  <c:v>210.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>420.16999999999996</c:v>
+                  <c:v>421.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>526.27</c:v>
+                  <c:v>527.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1059.17</c:v>
+                  <c:v>1060.1500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2129.77</c:v>
+                  <c:v>2130.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3199.77</c:v>
+                  <c:v>3200.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4013.77</c:v>
+                  <c:v>4014.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,42 +1748,86 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Basler_Complet!$D$22:$D$29</c:f>
+              <c:f>Basler_Complet!$D$23:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.9304300012730948</c:v>
+                  <c:v>6.0124870062229654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.469623353771169</c:v>
+                  <c:v>14.503447865938636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.498048687619022</c:v>
+                  <c:v>20.521939479493646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.9405754069073</c:v>
+                  <c:v>22.96192500641007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.544892072336019</c:v>
+                  <c:v>32.559944717397791</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.14943119909497</c:v>
+                  <c:v>46.160047660287354</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.566509526397333</c:v>
+                  <c:v>56.575171232617585</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.354321083885033</c:v>
+                  <c:v>63.362054890920319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Basler_Complet!$F$22:$F$29</c:f>
+              <c:f>Basler_Complet!$F$23:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4147,7 +4288,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4183,7 +4324,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4213,13 +4354,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4249,13 +4390,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4882,10 +5023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F842E806-3489-423F-BBA9-D8AF74B92826}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4958,11 +5099,11 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="42">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="B7" s="8">
-        <v>11.23</v>
+        <v>10.25</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -4973,379 +5114,399 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="B8" s="8">
-        <v>11.45</v>
+        <v>11.23</v>
       </c>
       <c r="C8" s="9">
         <f>B8-$B$7</f>
-        <v>0.21999999999999886</v>
+        <v>0.98000000000000043</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" ref="F8:F14" si="0">SQRT(E8^2-$E$7^2)</f>
-        <v>0.2366431913239844</v>
+        <f>SQRT(E8^2-$E$7^2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="B9" s="8">
-        <v>11.78</v>
+        <v>11.45</v>
       </c>
       <c r="C9" s="9">
         <f>B9-$B$7</f>
-        <v>0.54999999999999893</v>
+        <v>1.1999999999999993</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8">
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
       <c r="F9" s="11">
         <f>SQRT(E9^2-$E$7^2)</f>
-        <v>0.45825756949558377</v>
+        <v>0.2366431913239844</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="B10" s="8">
-        <v>11.92</v>
+        <v>11.78</v>
       </c>
       <c r="C10" s="9">
-        <f>B10-$B$7</f>
-        <v>0.6899999999999995</v>
+        <f t="shared" ref="C10:C15" si="0">B10-$B$7</f>
+        <v>1.5299999999999994</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="8">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F10" s="11">
-        <f t="shared" si="0"/>
-        <v>0.55856960175075754</v>
+        <f t="shared" ref="F10:F15" si="1">SQRT(E10^2-$E$7^2)</f>
+        <v>0.45825756949558377</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B11" s="8">
-        <v>12.64</v>
+        <v>11.92</v>
       </c>
       <c r="C11" s="9">
-        <f>B11-$B$7</f>
-        <v>1.4100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>1.67</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8">
-        <v>1.23</v>
+        <v>0.88</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="0"/>
-        <v>1.0249390225764652</v>
+        <f t="shared" si="1"/>
+        <v>0.55856960175075754</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B12" s="8">
-        <v>9.16</v>
+        <v>12.64</v>
       </c>
       <c r="C12" s="9">
-        <f t="shared" ref="C12:C14" si="1">B12-$B$7</f>
-        <v>-2.0700000000000003</v>
+        <f t="shared" si="0"/>
+        <v>2.3900000000000006</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="8">
-        <v>2.02</v>
+        <v>1.23</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" si="0"/>
-        <v>1.9021040980976829</v>
+        <f t="shared" si="1"/>
+        <v>1.0249390225764652</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="B13" s="8">
-        <v>8.16</v>
+        <v>9.16</v>
       </c>
       <c r="C13" s="9">
-        <f t="shared" si="1"/>
-        <v>-3.0700000000000003</v>
+        <f t="shared" si="0"/>
+        <v>-1.0899999999999999</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="8">
-        <v>2.88</v>
+        <v>2.02</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="0"/>
-        <v>2.7985710639538888</v>
+        <f t="shared" si="1"/>
+        <v>1.9021040980976829</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B14" s="8">
-        <v>7.19</v>
+        <v>8.16</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" si="1"/>
-        <v>-4.04</v>
+        <f t="shared" si="0"/>
+        <v>-2.09</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="8">
+        <v>2.88</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="1"/>
+        <v>2.7985710639538888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8">
+        <v>7.19</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.0599999999999996</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8">
         <v>3.84</v>
       </c>
-      <c r="F14" s="11">
-        <f t="shared" si="0"/>
+      <c r="F15" s="11">
+        <f t="shared" si="1"/>
         <v>3.7793121067199515</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="B22" s="8">
-        <v>46.4</v>
-      </c>
-      <c r="C22" s="9">
-        <f t="shared" ref="C22:C29" si="2">B22-$B$7</f>
-        <v>35.17</v>
-      </c>
-      <c r="D22" s="9">
-        <f>SQRT(C22)</f>
-        <v>5.9304300012730948</v>
-      </c>
-      <c r="E22" s="8">
-        <v>2.12</v>
-      </c>
-      <c r="F22" s="11">
-        <f t="shared" ref="F22:F29" si="3">SQRT(E22^2-$E$7^2)</f>
-        <v>2.0079840636817816</v>
-      </c>
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="B23" s="8">
-        <v>220.6</v>
+        <v>46.4</v>
       </c>
       <c r="C23" s="9">
-        <f t="shared" si="2"/>
-        <v>209.37</v>
+        <f>B23-$B$7</f>
+        <v>36.15</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" ref="D23:D29" si="4">SQRT(C23)</f>
-        <v>14.469623353771169</v>
+        <f>SQRT(C23)</f>
+        <v>6.0124870062229654</v>
       </c>
       <c r="E23" s="8">
-        <v>5.54</v>
+        <v>2.12</v>
       </c>
       <c r="F23" s="11">
-        <f t="shared" si="3"/>
-        <v>5.4981087657484551</v>
+        <f t="shared" ref="F23:F30" si="2">SQRT(E23^2-$E$8^2)</f>
+        <v>2.0079840636817816</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="B24" s="8">
-        <v>431.4</v>
+        <v>220.6</v>
       </c>
       <c r="C24" s="9">
+        <f t="shared" ref="C24:C30" si="3">B24-$B$7</f>
+        <v>210.35</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" ref="D24:D30" si="4">SQRT(C24)</f>
+        <v>14.503447865938636</v>
+      </c>
+      <c r="E24" s="8">
+        <v>5.54</v>
+      </c>
+      <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>420.16999999999996</v>
-      </c>
-      <c r="D24" s="9">
-        <f t="shared" si="4"/>
-        <v>20.498048687619022</v>
-      </c>
-      <c r="E24" s="8">
-        <v>7.94</v>
-      </c>
-      <c r="F24" s="11">
-        <f t="shared" si="3"/>
-        <v>7.9108280224006897</v>
+        <v>5.4981087657484551</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="B25" s="8">
-        <v>537.5</v>
+        <v>431.4</v>
       </c>
       <c r="C25" s="9">
-        <f t="shared" si="2"/>
-        <v>526.27</v>
+        <f t="shared" si="3"/>
+        <v>421.15</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="4"/>
-        <v>22.9405754069073</v>
+        <v>20.521939479493646</v>
       </c>
       <c r="E25" s="8">
-        <v>8.92</v>
+        <v>7.94</v>
       </c>
       <c r="F25" s="11">
-        <f t="shared" si="3"/>
-        <v>8.8940429501998697</v>
+        <f t="shared" si="2"/>
+        <v>7.9108280224006897</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B26" s="8">
-        <v>1070.4000000000001</v>
+        <v>537.5</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" si="2"/>
-        <v>1059.17</v>
+        <f t="shared" si="3"/>
+        <v>527.25</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="4"/>
-        <v>32.544892072336019</v>
+        <v>22.96192500641007</v>
       </c>
       <c r="E26" s="8">
-        <v>13.03</v>
+        <v>8.92</v>
       </c>
       <c r="F26" s="11">
-        <f t="shared" si="3"/>
-        <v>13.012244233797642</v>
+        <f t="shared" si="2"/>
+        <v>8.8940429501998697</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B27" s="8">
-        <v>2141</v>
+        <v>1070.4000000000001</v>
       </c>
       <c r="C27" s="9">
-        <f t="shared" si="2"/>
-        <v>2129.77</v>
+        <f t="shared" si="3"/>
+        <v>1060.1500000000001</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" si="4"/>
-        <v>46.14943119909497</v>
+        <v>32.559944717397791</v>
       </c>
       <c r="E27" s="8">
-        <v>19.5</v>
+        <v>13.03</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" si="3"/>
-        <v>19.488139983076888</v>
+        <f t="shared" si="2"/>
+        <v>13.012244233797642</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="B28" s="8">
-        <v>3211</v>
+        <v>2141</v>
       </c>
       <c r="C28" s="9">
-        <f t="shared" si="2"/>
-        <v>3199.77</v>
+        <f t="shared" si="3"/>
+        <v>2130.75</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="4"/>
-        <v>56.566509526397333</v>
+        <v>46.160047660287354</v>
       </c>
       <c r="E28" s="8">
-        <v>24.9</v>
+        <v>19.5</v>
       </c>
       <c r="F28" s="11">
-        <f t="shared" si="3"/>
-        <v>24.890713127590377</v>
+        <f t="shared" si="2"/>
+        <v>19.488139983076888</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B29" s="8">
-        <v>4025</v>
+        <v>3211</v>
       </c>
       <c r="C29" s="9">
-        <f t="shared" si="2"/>
-        <v>4013.77</v>
+        <f t="shared" si="3"/>
+        <v>3200.75</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" si="4"/>
-        <v>63.354321083885033</v>
+        <v>56.575171232617585</v>
       </c>
       <c r="E29" s="8">
+        <v>24.9</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="2"/>
+        <v>24.890713127590377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>2</v>
+      </c>
+      <c r="B30" s="8">
+        <v>4025</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="3"/>
+        <v>4014.75</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="4"/>
+        <v>63.362054890920319</v>
+      </c>
+      <c r="E30" s="8">
         <v>30</v>
       </c>
-      <c r="F29" s="11">
-        <f t="shared" si="3"/>
+      <c r="F30" s="11">
+        <f t="shared" si="2"/>
         <v>29.992292343200443</v>
       </c>
     </row>

--- a/tests/Test_Basler.xlsx
+++ b/tests/Test_Basler.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\_tools\git_repo\LEnsE\ressources\machine-vision-gui\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A572A1-9242-45BE-8C63-12378F9956E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AE04B5-9959-4554-8B94-52352EB90DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="1875" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basler_infos" sheetId="5" r:id="rId1"/>
     <sheet name="Basler_Complet" sheetId="6" r:id="rId2"/>
+    <sheet name="Basler_Pylon_Viewer" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
   <si>
     <t>Ti</t>
   </si>
@@ -362,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,9 +448,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2052,6 +2050,1633 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Signal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> Obscurité</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BL=5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Basler_Pylon_Viewer!$A$8:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Basler_Pylon_Viewer!$C$8:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E359-4CE0-AC05-CFBBFC405D3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1538373423"/>
+        <c:axId val="1538379663"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1538373423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1538379663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1538379663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1538373423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Bruit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> Obscurité</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Basler_Pylon_Viewer!$A$8:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Basler_Pylon_Viewer!$F$8:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.29799328851502677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0889903580840374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8697326012026425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2925749715112915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.443635898675768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2695767727254346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.179322641263758</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.984239112325616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5D51-4059-A3F2-B91A974AA65F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="199328367"/>
+        <c:axId val="199332207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="199328367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199332207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199332207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199328367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Signal sous flux</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Basler_Pylon_Viewer!$A$23:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Basler_Pylon_Viewer!$C$23:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC55-49FE-98FF-A62362A9D728}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="199339407"/>
+        <c:axId val="199342767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="199339407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199342767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199342767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199339407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Bruit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Basler_Pylon_Viewer!$D$23:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Basler_Pylon_Viewer!$F$23:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CA2F-47E9-BCD2-A2FCE2949E0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1541386943"/>
+        <c:axId val="1538378703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1541386943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1538378703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1538378703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541386943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2212,6 +3837,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3761,6 +5546,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4425,6 +8274,163 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BB74C5-2243-49E8-BC42-73E3169B87C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970A9CAC-19A1-4222-9CAD-DEB6C9384F84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E4F623-F1E2-4F99-B7B5-50E7D7DC38F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024473BC-331F-4095-AC3B-C88633744E60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -5025,7 +9031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F842E806-3489-423F-BBA9-D8AF74B92826}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -5099,7 +9105,7 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
+      <c r="A7" s="7">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="B7" s="8">
@@ -5515,4 +9521,468 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1C726A-AFAA-42F3-A66E-60C6BDBFF392}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12.7</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="B8" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="C8" s="9">
+        <f>B8-$B$7</f>
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="F8" s="11">
+        <f>SQRT(E8^2-$E$7^2)</f>
+        <v>0.29799328851502677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="C9" s="9">
+        <f>B9-$B$7</f>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="F9" s="11">
+        <f>SQRT(E9^2-$E$7^2)</f>
+        <v>1.0889903580840374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="B10" s="8">
+        <v>18.3</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:C15" si="0">B10-$B$7</f>
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" ref="F10:F15" si="1">SQRT(E10^2-$E$7^2)</f>
+        <v>1.8697326012026425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="B11" s="8">
+        <v>19.8</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="1"/>
+        <v>2.2925749715112915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="8">
+        <v>27.3</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>14.600000000000001</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="1"/>
+        <v>4.443635898675768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>39.5</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>26.8</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
+        <v>8.2695767727254346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B14" s="8">
+        <v>54.5</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>41.8</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="1"/>
+        <v>12.179322641263758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8">
+        <v>65.5</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" si="0"/>
+        <v>52.8</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8">
+        <v>16</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="1"/>
+        <v>15.984239112325616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9">
+        <f>B23-$B$7</f>
+        <v>-12.7</v>
+      </c>
+      <c r="D23" s="9" t="e">
+        <f>SQRT(C23)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="11" t="e">
+        <f t="shared" ref="F23:F30" si="2">SQRT(E23^2-$E$8^2)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9">
+        <f t="shared" ref="C24:C30" si="3">B24-$B$7</f>
+        <v>-12.7</v>
+      </c>
+      <c r="D24" s="9" t="e">
+        <f t="shared" ref="D24:D30" si="4">SQRT(C24)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9">
+        <f t="shared" si="3"/>
+        <v>-12.7</v>
+      </c>
+      <c r="D25" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9">
+        <f t="shared" si="3"/>
+        <v>-12.7</v>
+      </c>
+      <c r="D26" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9">
+        <f t="shared" si="3"/>
+        <v>-12.7</v>
+      </c>
+      <c r="D27" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9">
+        <f t="shared" si="3"/>
+        <v>-12.7</v>
+      </c>
+      <c r="D28" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9">
+        <f t="shared" si="3"/>
+        <v>-12.7</v>
+      </c>
+      <c r="D29" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>2</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9">
+        <f t="shared" si="3"/>
+        <v>-12.7</v>
+      </c>
+      <c r="D30" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/tests/Test_Basler.xlsx
+++ b/tests/Test_Basler.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\_tools\git_repo\LEnsE\ressources\machine-vision-gui\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AE04B5-9959-4554-8B94-52352EB90DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BE1DF9-56BB-44CF-9DA5-17E736B7CD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="1875" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basler_infos" sheetId="5" r:id="rId1"/>
     <sheet name="Basler_Complet" sheetId="6" r:id="rId2"/>
     <sheet name="Basler_Pylon_Viewer" sheetId="7" r:id="rId3"/>
+    <sheet name="Basler_Complet (2)" sheetId="8" r:id="rId4"/>
+    <sheet name="Basler_Pylon_Viewer (2)" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="48">
   <si>
     <t>Ti</t>
   </si>
@@ -834,6 +836,2849 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Bruit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> Obscurité</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Basler_Complet (2)'!$A$8:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Basler_Complet (2)'!$F$8:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.10723805294763614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18734993995195201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29103264421710506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33271609519228262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5469917732470938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0217631819555839</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6AAF-4F22-89B6-09422CAEE136}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="199328367"/>
+        <c:axId val="199332207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="199328367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199332207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199332207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199328367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Signal sous flux</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Basler_Complet (2)'!$A$23:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Basler_Complet (2)'!$C$23:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.9600000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE48-4419-8FBD-C2219C0B825C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="199339407"/>
+        <c:axId val="199342767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="199339407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199342767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199342767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199339407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Bruit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Basler_Complet (2)'!$D$23:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Basler_Complet (2)'!$F$23:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7330-492F-84BC-3C5734E1D4F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1541386943"/>
+        <c:axId val="1538378703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1541386943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1538378703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1538378703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541386943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Signal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> Obscurité</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BL=5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Basler_Pylon_Viewer (2)'!$A$8:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Basler_Pylon_Viewer (2)'!$C$8:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5974-4398-BC0C-6BB9C5E651B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1538373423"/>
+        <c:axId val="1538379663"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1538373423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1538379663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1538379663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1538373423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Bruit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> Obscurité</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Basler_Pylon_Viewer (2)'!$A$8:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Basler_Pylon_Viewer (2)'!$F$8:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.29799328851502677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0889903580840374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8697326012026425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2925749715112915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.443635898675768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2695767727254346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.179322641263758</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.984239112325616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-507A-4BD5-9158-403F0AC98F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="199328367"/>
+        <c:axId val="199332207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="199328367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199332207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199332207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199328367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Signal sous flux</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Basler_Pylon_Viewer (2)'!$A$23:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Basler_Pylon_Viewer (2)'!$C$23:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C83-4110-A8FF-8C375B6DF48D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="199339407"/>
+        <c:axId val="199342767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="199339407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199342767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199342767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199339407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Bruit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Basler_Pylon_Viewer (2)'!$D$23:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Basler_Pylon_Viewer (2)'!$F$23:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29DF-4AD6-9EEA-6D7C31D16021}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1541386943"/>
+        <c:axId val="1538378703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1541386943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1538378703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1538378703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541386943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3677,7 +6522,654 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Signal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> Obscurité</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BL=5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Basler_Complet (2)'!$A$8:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Basler_Complet (2)'!$C$8:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.9999999999999147E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15999999999999837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38999999999999879</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.9600000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BF0-417C-B035-B48614C9B771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1538373423"/>
+        <c:axId val="1538379663"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1538373423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1538379663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1538379663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1538373423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3997,6 +7489,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4513,7 +8045,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5029,7 +8561,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5545,7 +9077,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6061,7 +9593,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6577,7 +10109,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7093,7 +10625,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7609,7 +11141,4135 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8431,6 +16091,320 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B452B4-3E60-47E6-B4DA-2C572DF02991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DCF9EA-0515-4013-932B-4AADD5F80989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E9C860-CDAC-40F1-BF55-2FEF929F2C14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11888A8-5F56-4120-B22B-8CBFD33BC988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FDAF3C-03DC-4C10-94CA-A5572AE52DDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABA580B-2401-434E-BD4F-55C554E8E2FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB52369-2516-4594-8F90-67AA4EB146D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA09AB90-34EF-49FF-8A28-78E8C907E562}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -8718,6 +16692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9029,6 +17004,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F842E806-3489-423F-BBA9-D8AF74B92826}">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9525,9 +17501,930 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1C726A-AFAA-42F3-A66E-60C6BDBFF392}">
+  <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12.7</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="B8" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="C8" s="9">
+        <f>B8-$B$7</f>
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="F8" s="11">
+        <f>SQRT(E8^2-$E$7^2)</f>
+        <v>0.29799328851502677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="C9" s="9">
+        <f>B9-$B$7</f>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="F9" s="11">
+        <f>SQRT(E9^2-$E$7^2)</f>
+        <v>1.0889903580840374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="B10" s="8">
+        <v>18.3</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:C15" si="0">B10-$B$7</f>
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" ref="F10:F15" si="1">SQRT(E10^2-$E$7^2)</f>
+        <v>1.8697326012026425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="B11" s="8">
+        <v>19.8</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="1"/>
+        <v>2.2925749715112915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="8">
+        <v>27.3</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>14.600000000000001</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="1"/>
+        <v>4.443635898675768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>39.5</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>26.8</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
+        <v>8.2695767727254346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B14" s="8">
+        <v>54.5</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>41.8</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="1"/>
+        <v>12.179322641263758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8">
+        <v>65.5</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" si="0"/>
+        <v>52.8</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8">
+        <v>16</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="1"/>
+        <v>15.984239112325616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9">
+        <f>B23-$B$7</f>
+        <v>-12.7</v>
+      </c>
+      <c r="D23" s="9" t="e">
+        <f>SQRT(C23)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="11" t="e">
+        <f t="shared" ref="F23:F30" si="2">SQRT(E23^2-$E$8^2)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9">
+        <f t="shared" ref="C24:C30" si="3">B24-$B$7</f>
+        <v>-12.7</v>
+      </c>
+      <c r="D24" s="9" t="e">
+        <f t="shared" ref="D24:D30" si="4">SQRT(C24)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9">
+        <f t="shared" si="3"/>
+        <v>-12.7</v>
+      </c>
+      <c r="D25" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9">
+        <f t="shared" si="3"/>
+        <v>-12.7</v>
+      </c>
+      <c r="D26" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9">
+        <f t="shared" si="3"/>
+        <v>-12.7</v>
+      </c>
+      <c r="D27" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9">
+        <f t="shared" si="3"/>
+        <v>-12.7</v>
+      </c>
+      <c r="D28" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9">
+        <f t="shared" si="3"/>
+        <v>-12.7</v>
+      </c>
+      <c r="D29" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>2</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9">
+        <f t="shared" si="3"/>
+        <v>-12.7</v>
+      </c>
+      <c r="D30" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A50779B-2836-4878-962A-36924A5AD829}">
+  <sheetPr codeName="Feuil4"/>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="B8" s="8">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9">
+        <f>B8-$B$7</f>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F8" s="11">
+        <f>SQRT(E8^2-$E$7^2)</f>
+        <v>0.10723805294763614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="C9" s="9">
+        <f>B9-$B$7</f>
+        <v>0.15999999999999837</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="11">
+        <f>SQRT(E9^2-$E$7^2)</f>
+        <v>0.18734993995195201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9.23</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:C15" si="0">B10-$B$7</f>
+        <v>0.26999999999999957</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" ref="F10:F15" si="1">SQRT(E10^2-$E$7^2)</f>
+        <v>0.29103264421710506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="B11" s="8">
+        <v>9.35</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.38999999999999879</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="1"/>
+        <v>0.33271609519228262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="8">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5469917732470938</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>-8.9600000000000009</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8">
+        <v>1.17</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0217631819555839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>-8.9600000000000009</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9">
+        <f t="shared" si="0"/>
+        <v>-8.9600000000000009</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9">
+        <f>B23-$B$7</f>
+        <v>-8.9600000000000009</v>
+      </c>
+      <c r="D23" s="9" t="e">
+        <f>SQRT(C23)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="11" t="e">
+        <f t="shared" ref="F23:F30" si="2">SQRT(E23^2-$E$8^2)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9">
+        <f t="shared" ref="C24:C30" si="3">B24-$B$7</f>
+        <v>-8.9600000000000009</v>
+      </c>
+      <c r="D24" s="9" t="e">
+        <f t="shared" ref="D24:D30" si="4">SQRT(C24)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9">
+        <f t="shared" si="3"/>
+        <v>-8.9600000000000009</v>
+      </c>
+      <c r="D25" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9">
+        <f t="shared" si="3"/>
+        <v>-8.9600000000000009</v>
+      </c>
+      <c r="D26" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9">
+        <f t="shared" si="3"/>
+        <v>-8.9600000000000009</v>
+      </c>
+      <c r="D27" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9">
+        <f t="shared" si="3"/>
+        <v>-8.9600000000000009</v>
+      </c>
+      <c r="D28" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9">
+        <f t="shared" si="3"/>
+        <v>-8.9600000000000009</v>
+      </c>
+      <c r="D29" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>2</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9">
+        <f t="shared" si="3"/>
+        <v>-8.9600000000000009</v>
+      </c>
+      <c r="D30" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7263F5-5566-47C2-AF2F-E2B89CFA1168}">
+  <sheetPr codeName="Feuil5"/>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>

--- a/tests/Test_Basler.xlsx
+++ b/tests/Test_Basler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\_tools\git_repo\LEnsE\ressources\machine-vision-gui\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BE1DF9-56BB-44CF-9DA5-17E736B7CD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA65C53-5B1A-40F7-9AD5-3C8949251FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basler_infos" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
   <si>
     <t>Ti</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>400 x 400</t>
+  </si>
+  <si>
+    <t>500 x 500</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,6 +453,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -583,16 +589,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>1E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -604,7 +610,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,28 +622,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.98000000000000043</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1999999999999993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5299999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.67</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3900000000000006</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0899999999999999</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.09</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.0599999999999996</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3834,16 +3840,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>1E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -3855,7 +3861,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3870,25 +3876,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2366431913239844</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45825756949558377</c:v>
+                  <c:v>0.14142135623730956</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55856960175075754</c:v>
+                  <c:v>0.49989998999799945</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0249390225764652</c:v>
+                  <c:v>0.96244480361213447</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9021040980976829</c:v>
+                  <c:v>1.554606059424702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7985710639538888</c:v>
+                  <c:v>2.0728724032125081</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7793121067199515</c:v>
+                  <c:v>2.4922881053361388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4271,28 +4277,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>36.15</c:v>
+                  <c:v>-52.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210.35</c:v>
+                  <c:v>121.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>421.15</c:v>
+                  <c:v>332.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>527.25</c:v>
+                  <c:v>438.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1060.1500000000001</c:v>
+                  <c:v>971.40000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2130.75</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3200.75</c:v>
+                  <c:v>3112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4014.75</c:v>
+                  <c:v>3926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4642,28 +4648,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.0124870062229654</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.503447865938636</c:v>
+                  <c:v>11.027239001672177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.521939479493646</c:v>
+                  <c:v>18.231840280125315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.96192500641007</c:v>
+                  <c:v>20.940391591371924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.559944717397791</c:v>
+                  <c:v>31.167290546340407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.160047660287354</c:v>
+                  <c:v>45.188494110780013</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.575171232617585</c:v>
+                  <c:v>55.785302723925412</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.362054890920319</c:v>
+                  <c:v>62.657800791282163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4675,28 +4681,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.0079840636817816</c:v>
+                  <c:v>2.0625954523366916</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4981087657484551</c:v>
+                  <c:v>5.5182877779253232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9108280224006897</c:v>
+                  <c:v>7.9248659294653061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8940429501998697</c:v>
+                  <c:v>8.9065313113467468</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.012244233797642</c:v>
+                  <c:v>13.020783386570869</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.488139983076888</c:v>
+                  <c:v>19.493842617606209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.890713127590377</c:v>
+                  <c:v>24.895178248006175</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.992292343200443</c:v>
+                  <c:v>29.995998066408792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17007,8 +17013,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17028,6 +17034,11 @@
       </c>
       <c r="B1" s="13"/>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="42">
+        <v>45797</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>43</v>
@@ -17036,13 +17047,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17085,29 +17096,29 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="B7" s="8">
-        <v>10.25</v>
+        <v>99</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="8">
-        <v>0.68</v>
+        <v>0.49</v>
       </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>0.02</v>
+        <v>1E-4</v>
       </c>
       <c r="B8" s="8">
-        <v>11.23</v>
+        <v>99</v>
       </c>
       <c r="C8" s="9">
         <f>B8-$B$7</f>
-        <v>0.98000000000000043</v>
+        <v>0</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8">
-        <v>0.68</v>
+        <v>0.49</v>
       </c>
       <c r="F8" s="11">
         <f>SQRT(E8^2-$E$7^2)</f>
@@ -17116,62 +17127,62 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="B9" s="8">
-        <v>11.45</v>
+        <v>99</v>
       </c>
       <c r="C9" s="9">
         <f>B9-$B$7</f>
-        <v>1.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8">
-        <v>0.72</v>
+        <v>0.49</v>
       </c>
       <c r="F9" s="11">
         <f>SQRT(E9^2-$E$7^2)</f>
-        <v>0.2366431913239844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="B10" s="8">
-        <v>11.78</v>
+        <v>99</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" ref="C10:C15" si="0">B10-$B$7</f>
-        <v>1.5299999999999994</v>
+        <v>0</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="8">
-        <v>0.82</v>
+        <v>0.51</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" ref="F10:F15" si="1">SQRT(E10^2-$E$7^2)</f>
-        <v>0.45825756949558377</v>
+        <v>0.14142135623730956</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="B11" s="8">
-        <v>11.92</v>
+        <v>100</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
-        <v>0.55856960175075754</v>
+        <v>0.49989998999799945</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -17179,19 +17190,19 @@
         <v>0.5</v>
       </c>
       <c r="B12" s="8">
-        <v>12.64</v>
+        <v>105</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>2.3900000000000006</v>
+        <v>6</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="8">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
-        <v>1.0249390225764652</v>
+        <v>0.96244480361213447</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -17199,19 +17210,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="8">
-        <v>9.16</v>
+        <v>113</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>-1.0899999999999999</v>
+        <v>14</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="8">
-        <v>2.02</v>
+        <v>1.63</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
-        <v>1.9021040980976829</v>
+        <v>1.554606059424702</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -17219,39 +17230,39 @@
         <v>1.5</v>
       </c>
       <c r="B14" s="8">
-        <v>8.16</v>
+        <v>115</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" si="0"/>
-        <v>-2.09</v>
+        <v>16</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="8">
-        <v>2.88</v>
+        <v>2.13</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
-        <v>2.7985710639538888</v>
+        <v>2.0728724032125081</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="B15" s="8">
-        <v>7.19</v>
+        <v>120</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" si="0"/>
-        <v>-3.0599999999999996</v>
+        <v>21</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="8">
-        <v>3.84</v>
+        <v>2.54</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
-        <v>3.7793121067199515</v>
+        <v>2.4922881053361388</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -17317,18 +17328,18 @@
       </c>
       <c r="C23" s="9">
         <f>B23-$B$7</f>
-        <v>36.15</v>
-      </c>
-      <c r="D23" s="9">
+        <v>-52.6</v>
+      </c>
+      <c r="D23" s="9" t="e">
         <f>SQRT(C23)</f>
-        <v>6.0124870062229654</v>
+        <v>#NUM!</v>
       </c>
       <c r="E23" s="8">
         <v>2.12</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" ref="F23:F30" si="2">SQRT(E23^2-$E$8^2)</f>
-        <v>2.0079840636817816</v>
+        <v>2.0625954523366916</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -17340,18 +17351,18 @@
       </c>
       <c r="C24" s="9">
         <f t="shared" ref="C24:C30" si="3">B24-$B$7</f>
-        <v>210.35</v>
+        <v>121.6</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" ref="D24:D30" si="4">SQRT(C24)</f>
-        <v>14.503447865938636</v>
+        <v>11.027239001672177</v>
       </c>
       <c r="E24" s="8">
         <v>5.54</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>5.4981087657484551</v>
+        <v>5.5182877779253232</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17363,18 +17374,18 @@
       </c>
       <c r="C25" s="9">
         <f t="shared" si="3"/>
-        <v>421.15</v>
+        <v>332.4</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="4"/>
-        <v>20.521939479493646</v>
+        <v>18.231840280125315</v>
       </c>
       <c r="E25" s="8">
         <v>7.94</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>7.9108280224006897</v>
+        <v>7.9248659294653061</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17386,18 +17397,18 @@
       </c>
       <c r="C26" s="9">
         <f t="shared" si="3"/>
-        <v>527.25</v>
+        <v>438.5</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="4"/>
-        <v>22.96192500641007</v>
+        <v>20.940391591371924</v>
       </c>
       <c r="E26" s="8">
         <v>8.92</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>8.8940429501998697</v>
+        <v>8.9065313113467468</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -17409,18 +17420,18 @@
       </c>
       <c r="C27" s="9">
         <f t="shared" si="3"/>
-        <v>1060.1500000000001</v>
+        <v>971.40000000000009</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" si="4"/>
-        <v>32.559944717397791</v>
+        <v>31.167290546340407</v>
       </c>
       <c r="E27" s="8">
         <v>13.03</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>13.012244233797642</v>
+        <v>13.020783386570869</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -17432,18 +17443,18 @@
       </c>
       <c r="C28" s="9">
         <f t="shared" si="3"/>
-        <v>2130.75</v>
+        <v>2042</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="4"/>
-        <v>46.160047660287354</v>
+        <v>45.188494110780013</v>
       </c>
       <c r="E28" s="8">
         <v>19.5</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>19.488139983076888</v>
+        <v>19.493842617606209</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -17455,18 +17466,18 @@
       </c>
       <c r="C29" s="9">
         <f t="shared" si="3"/>
-        <v>3200.75</v>
+        <v>3112</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" si="4"/>
-        <v>56.575171232617585</v>
+        <v>55.785302723925412</v>
       </c>
       <c r="E29" s="8">
         <v>24.9</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>24.890713127590377</v>
+        <v>24.895178248006175</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -17478,18 +17489,18 @@
       </c>
       <c r="C30" s="9">
         <f t="shared" si="3"/>
-        <v>4014.75</v>
+        <v>3926</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="4"/>
-        <v>63.362054890920319</v>
+        <v>62.657800791282163</v>
       </c>
       <c r="E30" s="8">
         <v>30</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>29.992292343200443</v>
+        <v>29.995998066408792</v>
       </c>
     </row>
   </sheetData>
@@ -17504,7 +17515,7 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
